--- a/rawdata/Segments3.xlsx
+++ b/rawdata/Segments3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly\Desktop\rail_simulator\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5BECD2-B718-4D3C-B7DB-3DB23CA53922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD78615-5397-468A-95E0-D36B29659A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{9BAFB3FB-CF0E-41D0-A3EB-B7AAE1AD5716}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BAFB3FB-CF0E-41D0-A3EB-B7AAE1AD5716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>From</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>To Milepost</t>
+  </si>
+  <si>
+    <t>incorrect</t>
   </si>
 </sst>
 </file>
@@ -84,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +454,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,13 +483,13 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>220077</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>175418</v>
       </c>
       <c r="I2" s="1"/>
@@ -492,13 +502,13 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>175418</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>161739</v>
       </c>
       <c r="I3" s="1"/>
@@ -511,13 +521,13 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>161739</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>161336.33499999999</v>
       </c>
       <c r="I4" s="1"/>
@@ -530,13 +540,13 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>161336.33499999999</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>144261</v>
       </c>
       <c r="I5" s="1"/>
@@ -549,13 +559,13 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>144261</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>126558</v>
       </c>
       <c r="I6" s="1"/>
@@ -580,6 +590,9 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
